--- a/biology/Zoologie/Astriclypeidae/Astriclypeidae.xlsx
+++ b/biology/Zoologie/Astriclypeidae/Astriclypeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Astriclypeidae forment une famille d'oursins plats de l'ordre des Clypeasteroida.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins plats, dont l'intérieur est renforcé par un système de contreforts complexe, formant un système de microcanaux à la périphérie. 
 Ils sont équipés de quatre gonopores. 
@@ -521,7 +535,7 @@
 Les interambulacres postérieurs sont disjoints adoralement. 
 Le périprocte est situé sur la face orale, associé à la première paire de plaques interambulacraires post-basicoronales. 
 Des encoches perradiales ou des lunules sont présentes sur certains ou tous les ambulacres (la plupart des espèces ont 2 lunules postérieures, Astriclypeus mannii en a 5, une suivant chaque pétale). 
-Les sillons nutritifs sont bien développés, bifurquant au bord du cercle basicoronal et finement ramifiés distalement[1].
+Les sillons nutritifs sont bien développés, bifurquant au bord du cercle basicoronal et finement ramifiés distalement.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Répartition stratigraphique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Oligocène à actuel, en Europe, en Afrique du Nord, et en zone Indo-Pacifique[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Oligocène à actuel, en Europe, en Afrique du Nord, et en zone Indo-Pacifique.
 </t>
         </is>
       </c>
@@ -581,9 +597,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après World Register of Marine Species                               (7 février 2018)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après World Register of Marine Species                               (7 février 2018) :
 Amphiope (L. Agassiz, 1840a) †
 Astriclypeus (Verrill, 1867) -- 1 espèce actuelle
 Astriclypeus mannii (Verrill, 1867) ; 5 lunules, Philippines et mer de Chine
